--- a/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC165AB-5AE2-47F1-A8D8-45B0E0A668DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A74924-CFF4-47D2-97A4-AA27205963A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAC4DF95-C09B-48BE-A965-EBAA9B4948A5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED553C8-5D9C-4867-8863-D017E8C10603}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -149,13 +149,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>99,39%</t>
@@ -164,13 +164,13 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,38%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -179,25 +179,25 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,4%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,6%</t>
+    <t>99,59%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -206,7 +206,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -218,7 +218,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427AB01C-1FFD-4804-9A2C-E6E50607E9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A73130-F6FA-4DFB-941B-2B1851793225}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A74924-CFF4-47D2-97A4-AA27205963A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EA57A6-B36C-4932-AF2A-1A34D7CF08E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED553C8-5D9C-4867-8863-D017E8C10603}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA98E4EC-9E1C-414B-8FDC-11EBD313AA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -125,7 +125,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -140,7 +140,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A73130-F6FA-4DFB-941B-2B1851793225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CFB76E-0E7A-4EE3-9A1E-71B4BC5C78C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EA57A6-B36C-4932-AF2A-1A34D7CF08E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F91BB16-AD3E-457F-AC87-5C0A48399E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA98E4EC-9E1C-414B-8FDC-11EBD313AA3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE022310-8ABF-478D-A6DD-DE29C5E3518B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -149,13 +149,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,39%</t>
@@ -164,13 +164,13 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,79%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -179,25 +179,25 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,4%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,59%</t>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -206,7 +206,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -218,7 +218,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CFB76E-0E7A-4EE3-9A1E-71B4BC5C78C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218B2115-596A-4CE5-ACF2-475DF7D5040B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F91BB16-AD3E-457F-AC87-5C0A48399E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AB807E-2525-47CD-AAC1-B219A0EDE3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE022310-8ABF-478D-A6DD-DE29C5E3518B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4DD1002-DE70-4DE6-8396-51804ED7C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
   <si>
     <t>Población que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,13 +77,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,55 +92,40 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,86%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -149,79 +134,67 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -636,8 +609,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218B2115-596A-4CE5-ACF2-475DF7D5040B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14815D34-1E97-42FC-8950-E124AED1FE57}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,10 +778,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D5" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -820,10 +793,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I5" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -835,10 +808,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>151</v>
+        <v>810</v>
       </c>
       <c r="N5" s="7">
-        <v>102075</v>
+        <v>565886</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -856,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D6" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -871,10 +844,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I6" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -886,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>151</v>
+        <v>810</v>
       </c>
       <c r="N6" s="7">
-        <v>102075</v>
+        <v>565886</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -960,10 +933,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D8" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -975,10 +948,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I8" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -990,10 +963,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N8" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1011,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1026,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1041,10 +1014,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N9" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1076,37 +1049,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>713</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,49 +1088,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D11" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>705</v>
+        <v>488</v>
       </c>
       <c r="I11" s="7">
-        <v>497302</v>
+        <v>328677</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>1131</v>
+        <v>802</v>
       </c>
       <c r="N11" s="7">
-        <v>983982</v>
+        <v>659514</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1166,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D12" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1181,10 +1154,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1196,10 +1169,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N12" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1213,7 +1186,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1231,37 +1204,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>780</v>
+        <v>687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>780</v>
+        <v>687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,46 +1243,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D14" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="I14" s="7">
-        <v>354240</v>
+        <v>517255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>802</v>
+        <v>1091</v>
       </c>
       <c r="N14" s="7">
-        <v>690367</v>
+        <v>925208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1321,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D15" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1336,10 +1309,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>355020</v>
+        <v>517942</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1351,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>803</v>
+        <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>691147</v>
+        <v>925895</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1368,7 +1341,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1386,37 +1359,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>744</v>
+        <v>1400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>744</v>
+        <v>1400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,25 +1398,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D17" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>665</v>
+        <v>2374</v>
       </c>
       <c r="I17" s="7">
-        <v>511704</v>
+        <v>1592574</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>50</v>
@@ -1455,16 +1428,16 @@
         <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>1091</v>
+        <v>3834</v>
       </c>
       <c r="N17" s="7">
-        <v>935525</v>
+        <v>3256352</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1476,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D18" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1491,10 +1464,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="I18" s="7">
-        <v>512448</v>
+        <v>1593974</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1506,10 +1479,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1092</v>
+        <v>3836</v>
       </c>
       <c r="N18" s="7">
-        <v>936269</v>
+        <v>3257752</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1522,171 +1495,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1523</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1523</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2374</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1683164</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3834</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3201695</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2376</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3836</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>62</v>
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
